--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/Violencia Intrafamiliar/Violencia Intrafamiliar.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/Violencia Intrafamiliar/Violencia Intrafamiliar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ineedso\Desktop\DESA 2023\SOLICITUDES DE INFORMACION 2023\Solicitud de Genero\VIOLENCIA\Violencia Intrafamiliar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/Violencia Intrafamiliar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93DC87A5-284F-45FF-A54A-E765BE5F35C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{93DC87A5-284F-45FF-A54A-E765BE5F35C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35C66D63-463B-4BC5-A265-0955F77D3232}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7077F3C3-D065-4AF6-B506-2EB171830680}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{7077F3C3-D065-4AF6-B506-2EB171830680}"/>
   </bookViews>
   <sheets>
     <sheet name="5.5" sheetId="3" r:id="rId1"/>
@@ -331,7 +331,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +347,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +478,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -532,6 +538,22 @@
     <xf numFmtId="41" fontId="5" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,6 +605,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -884,7 +910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AE4B9-DEE0-42A3-A087-C7AD70B29FD2}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9:P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -913,100 +941,100 @@
       <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="33">
         <v>2018</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="27">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="33">
         <v>2019</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="27">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="33">
         <v>2020</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="27">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="33">
         <v>2021</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="27">
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="33">
         <v>2022</v>
       </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="13" t="s">
         <v>2</v>
       </c>
@@ -1153,153 +1181,153 @@
         <v>19133</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="24">
         <v>8787</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="25">
         <v>1137</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="25">
         <v>7650</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="26">
         <v>9730</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="27">
         <v>1382</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="27">
         <v>8348</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="26">
         <v>9020</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="27">
         <v>1243</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="27">
         <v>7777</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="26">
         <v>9955</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="27">
         <v>1458</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="27">
         <v>8497</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="26">
         <v>10126</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="27">
         <v>1517</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="27">
         <v>8609</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="24">
         <v>57</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="25">
         <v>11</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="25">
         <v>46</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="26">
         <v>49</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="27">
         <v>9</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="27">
         <v>40</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="26">
         <v>28</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="27">
         <v>5</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="27">
         <v>23</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="26">
         <v>46</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="27">
         <v>7</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="27">
         <v>39</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="26">
         <v>46</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="27">
         <v>6</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="27">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="24">
         <v>49</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="25">
         <v>12</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="25">
         <v>37</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="26">
         <v>72</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="27">
         <v>10</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="27">
         <v>62</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="26">
         <v>18</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="27">
         <v>5</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="27">
         <v>13</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="26">
         <v>38</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="27">
         <v>2</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="27">
         <v>36</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="26">
         <v>49</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="27">
         <v>14</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="27">
         <v>35</v>
       </c>
     </row>
@@ -1483,7 +1511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08871730-6D48-4902-9894-3E1E61D760DD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="K6" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:O23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1512,100 +1542,100 @@
       <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="33">
         <v>2018</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="27">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="33">
         <v>2019</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="27">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="33">
         <v>2020</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="27">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="33">
         <v>2021</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="27">
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="33">
         <v>2022</v>
       </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="13" t="s">
         <v>2</v>
       </c>
@@ -2482,7 +2512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2C3E58-DFA4-4777-B147-061AF61DED5B}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2511,100 +2543,100 @@
       <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="33">
         <v>2018</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="27">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="33">
         <v>2019</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="27">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="33">
         <v>2020</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="27">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="33">
         <v>2021</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="27">
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="33">
         <v>2022</v>
       </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="13" t="s">
         <v>2</v>
       </c>
@@ -3012,12 +3044,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/Violencia Intrafamiliar/Violencia Intrafamiliar.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/Violencia Intrafamiliar/Violencia Intrafamiliar.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{93DC87A5-284F-45FF-A54A-E765BE5F35C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35C66D63-463B-4BC5-A265-0955F77D3232}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{7077F3C3-D065-4AF6-B506-2EB171830680}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7077F3C3-D065-4AF6-B506-2EB171830680}"/>
   </bookViews>
   <sheets>
     <sheet name="5.5" sheetId="3" r:id="rId1"/>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AE4B9-DEE0-42A3-A087-C7AD70B29FD2}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9:P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2C3E58-DFA4-4777-B147-061AF61DED5B}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/Violencia Intrafamiliar/Violencia Intrafamiliar.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/Violencia Intrafamiliar/Violencia Intrafamiliar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/Violencia Intrafamiliar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{93DC87A5-284F-45FF-A54A-E765BE5F35C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35C66D63-463B-4BC5-A265-0955F77D3232}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{93DC87A5-284F-45FF-A54A-E765BE5F35C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93FBE9AF-FBAD-4F22-9793-025C3652F4F6}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7077F3C3-D065-4AF6-B506-2EB171830680}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{7077F3C3-D065-4AF6-B506-2EB171830680}"/>
   </bookViews>
   <sheets>
     <sheet name="5.5" sheetId="3" r:id="rId1"/>
@@ -478,7 +478,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -580,6 +580,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -910,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AE4B9-DEE0-42A3-A087-C7AD70B29FD2}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08871730-6D48-4902-9894-3E1E61D760DD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="K6" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:O23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,20 +2514,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2C3E58-DFA4-4777-B147-061AF61DED5B}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="11" customWidth="1"/>
-    <col min="2" max="7" width="9.85546875" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="2" width="27.7109375" style="11" customWidth="1"/>
+    <col min="3" max="8" width="9.85546875" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2541,8 +2545,9 @@
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -2561,9 +2566,10 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
-      <c r="Q2" s="10"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>40</v>
       </c>
@@ -2582,9 +2588,10 @@
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="12"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>24</v>
       </c>
@@ -2603,466 +2610,521 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" s="30"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="39"/>
+      <c r="C6" s="33">
         <v>2018</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="33">
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="33">
         <v>2019</v>
       </c>
-      <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="33">
+      <c r="H6" s="34"/>
+      <c r="I6" s="33">
         <v>2020</v>
       </c>
-      <c r="I6" s="34"/>
       <c r="J6" s="34"/>
-      <c r="K6" s="33">
+      <c r="K6" s="34"/>
+      <c r="L6" s="33">
         <v>2021</v>
       </c>
-      <c r="L6" s="34"/>
       <c r="M6" s="34"/>
-      <c r="N6" s="33">
+      <c r="N6" s="34"/>
+      <c r="O6" s="33">
         <v>2022</v>
       </c>
-      <c r="O6" s="34"/>
       <c r="P6" s="34"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="K7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="M7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="N7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="P7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="Q7" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
+        <v>141625</v>
+      </c>
+      <c r="C8" s="4">
         <v>29992</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>3738</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>26254</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>31898</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>4289</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>27609</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>28259</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>3728</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>24531</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>36435</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>4942</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>31493</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>37194</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>5456</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>31738</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="38">
+        <f>E8+H8+K8+N8+Q8</f>
+        <v>141625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="2">
+        <v>9355</v>
+      </c>
+      <c r="C9" s="18">
         <v>1749</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="6">
         <v>28</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <v>1721</v>
       </c>
-      <c r="E9" s="21">
+      <c r="F9" s="21">
         <v>2194</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>59</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>2135</v>
       </c>
-      <c r="H9" s="21">
+      <c r="I9" s="21">
         <v>1521</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>26</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>1495</v>
       </c>
-      <c r="K9" s="21">
+      <c r="L9" s="21">
         <v>1856</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>42</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N9" s="7">
         <v>1814</v>
       </c>
-      <c r="N9" s="21">
+      <c r="O9" s="21">
         <v>2242</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>52</v>
       </c>
-      <c r="P9" s="7">
+      <c r="Q9" s="7">
         <v>2190</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="38">
+        <f t="shared" ref="R9:R14" si="0">E9+H9+K9+N9+Q9</f>
+        <v>9355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="2">
+        <v>1307</v>
+      </c>
+      <c r="C10" s="18">
         <v>418</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="6">
         <v>56</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <v>362</v>
       </c>
-      <c r="E10" s="21">
+      <c r="F10" s="21">
         <v>373</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="7">
         <v>62</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>311</v>
       </c>
-      <c r="H10" s="21">
+      <c r="I10" s="21">
         <v>200</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <v>40</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>160</v>
       </c>
-      <c r="K10" s="21">
+      <c r="L10" s="21">
         <v>301</v>
       </c>
-      <c r="L10" s="7">
+      <c r="M10" s="7">
         <v>54</v>
       </c>
-      <c r="M10" s="7">
+      <c r="N10" s="7">
         <v>247</v>
       </c>
-      <c r="N10" s="21">
+      <c r="O10" s="21">
         <v>274</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <v>47</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="7">
         <v>227</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="38">
+        <f t="shared" si="0"/>
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="2">
+        <v>55679</v>
+      </c>
+      <c r="C11" s="18">
         <v>10670</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="6">
         <v>1527</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <v>9143</v>
       </c>
-      <c r="E11" s="21">
+      <c r="F11" s="21">
         <v>13274</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>2077</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>11197</v>
       </c>
-      <c r="H11" s="21">
+      <c r="I11" s="21">
         <v>12494</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <v>1805</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>10689</v>
       </c>
-      <c r="K11" s="21">
+      <c r="L11" s="21">
         <v>15041</v>
       </c>
-      <c r="L11" s="7">
+      <c r="M11" s="7">
         <v>2380</v>
       </c>
-      <c r="M11" s="7">
+      <c r="N11" s="7">
         <v>12661</v>
       </c>
-      <c r="N11" s="21">
+      <c r="O11" s="21">
         <v>14638</v>
       </c>
-      <c r="O11" s="7">
+      <c r="P11" s="7">
         <v>2649</v>
       </c>
-      <c r="P11" s="7">
+      <c r="Q11" s="7">
         <v>11989</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="38">
+        <f t="shared" si="0"/>
+        <v>55679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="2">
+        <v>74764</v>
+      </c>
+      <c r="C12" s="18">
         <v>16990</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D12" s="6">
         <v>2109</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <v>14881</v>
       </c>
-      <c r="E12" s="21">
+      <c r="F12" s="21">
         <v>15934</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="7">
         <v>2077</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>13857</v>
       </c>
-      <c r="H12" s="21">
+      <c r="I12" s="21">
         <v>13965</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <v>1851</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <v>12114</v>
       </c>
-      <c r="K12" s="21">
+      <c r="L12" s="21">
         <v>19151</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>2451</v>
       </c>
-      <c r="M12" s="7">
+      <c r="N12" s="7">
         <v>16700</v>
       </c>
-      <c r="N12" s="21">
+      <c r="O12" s="21">
         <v>19891</v>
       </c>
-      <c r="O12" s="7">
+      <c r="P12" s="7">
         <v>2679</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="7">
         <v>17212</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R12" s="38">
+        <f t="shared" si="0"/>
+        <v>74764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="18">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" s="18">
         <v>0</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="6">
         <v>0</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="21">
         <v>0</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="21">
         <v>0</v>
       </c>
       <c r="J13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="21">
         <v>0</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="38" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="3">
+        <v>520</v>
+      </c>
+      <c r="C14" s="20">
         <v>165</v>
       </c>
-      <c r="C14" s="8">
+      <c r="D14" s="8">
         <v>18</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <v>147</v>
       </c>
-      <c r="E14" s="22">
+      <c r="F14" s="22">
         <v>123</v>
       </c>
-      <c r="F14" s="9">
+      <c r="G14" s="9">
         <v>14</v>
       </c>
-      <c r="G14" s="9">
+      <c r="H14" s="9">
         <v>109</v>
       </c>
-      <c r="H14" s="22">
+      <c r="I14" s="22">
         <v>79</v>
       </c>
-      <c r="I14" s="9">
+      <c r="J14" s="9">
         <v>6</v>
       </c>
-      <c r="J14" s="9">
+      <c r="K14" s="9">
         <v>73</v>
       </c>
-      <c r="K14" s="22">
+      <c r="L14" s="22">
         <v>86</v>
       </c>
-      <c r="L14" s="9">
+      <c r="M14" s="9">
         <v>15</v>
       </c>
-      <c r="M14" s="9">
+      <c r="N14" s="9">
         <v>71</v>
       </c>
-      <c r="N14" s="22">
+      <c r="O14" s="22">
         <v>149</v>
       </c>
-      <c r="O14" s="9">
+      <c r="P14" s="9">
         <v>29</v>
       </c>
-      <c r="P14" s="9">
+      <c r="Q14" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="38">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
